--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41641.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.09</v>
+        <v>3.31</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>163.16</v>
+        <v>16.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41641.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.11</v>
+        <v>3.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.82</v>
+        <v>2.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.58</v>
+        <v>4.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>184.95</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>14.47</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.65</v>
+        <v>4.36</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41641.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.85</v>
+        <v>1.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.21</v>
+        <v>4.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.23</v>
+        <v>3.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.33</v>
+        <v>5.73</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>218.15</v>
+        <v>21.82</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.42</v>
+        <v>4.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.66</v>
+        <v>2.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.27</v>
+        <v>5.23</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41641.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.57</v>
+        <v>2.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>51.45</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>71.78</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>28.62</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>274.24</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>51.73</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>34.74</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>35.01</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.37</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.57</v>
+        <v>2.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.31999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.35</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41641.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>40.79</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>58.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.6</v>
-      </c>
       <c r="AC6" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>53.56</v>
+        <v>5.36</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41641.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>26.36</v>
+        <v>2.64</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>21.35</v>
+        <v>2.14</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>39.44</v>
+        <v>3.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>136.89</v>
+        <v>13.69</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>26.57</v>
+        <v>2.66</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>35.98</v>
+        <v>3.6</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41641.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>42.87</v>
+        <v>4.29</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>35.07</v>
+        <v>3.51</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>58.94</v>
+        <v>5.89</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.25</v>
+        <v>1.82</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>227.3</v>
+        <v>22.73</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>43.08</v>
+        <v>4.31</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.01</v>
+        <v>2.9</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.23</v>
+        <v>1.52</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.84</v>
+        <v>2.88</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>53.5</v>
+        <v>5.35</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41641.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.38</v>
+        <v>2.14</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>46.63</v>
+        <v>4.66</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.22</v>
+        <v>3.82</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>65.59999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.92</v>
+        <v>2.39</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>247.91</v>
+        <v>24.79</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.9</v>
+        <v>4.69</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.62</v>
+        <v>3.16</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.62</v>
+        <v>1.96</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>59.65</v>
+        <v>5.96</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41641.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>26.56</v>
+        <v>2.66</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>40.27</v>
+        <v>4.03</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>138.04</v>
+        <v>13.8</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>26.8</v>
+        <v>2.68</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>18.02</v>
+        <v>1.8</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>36.75</v>
+        <v>3.68</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41641.34027777778</v>
+        <v>44890.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.09</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.13</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.32</v>
+        <v>0.29</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="V2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.09</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.05</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.08</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.1</v>
       </c>
       <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41641.34722222222</v>
+        <v>44890.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.61</v>
+        <v>2.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.51</v>
+        <v>4.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.76</v>
+        <v>5.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.5</v>
+        <v>23.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.53</v>
+        <v>4.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.36</v>
+        <v>4.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41641.35416666666</v>
+        <v>44890.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.12</v>
+        <v>4.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.73</v>
+        <v>6.42</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.29</v>
+        <v>2.53</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.82</v>
+        <v>24.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.77</v>
+        <v>3.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.23</v>
+        <v>5.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41641.36111111111</v>
+        <v>44890.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.36</v>
+        <v>1.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.75</v>
+        <v>0.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.15</v>
+        <v>2.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.19</v>
+        <v>1.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.18</v>
+        <v>3.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.86</v>
+        <v>1.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.87</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.06</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.19</v>
+        <v>1.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.63</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.42</v>
+        <v>12.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.17</v>
+        <v>2.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.47</v>
+        <v>1.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.5</v>
+        <v>1.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.53</v>
+        <v>3.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41641.36805555555</v>
+        <v>44890.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.32</v>
+        <v>3.51</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.88</v>
+        <v>11.48</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.09</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>21.59</v>
+        <v>15.51</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.1</v>
+        <v>4.61</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.76</v>
+        <v>3.11</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.84</v>
+        <v>5.25</v>
       </c>
       <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.76</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41641.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41641.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41641.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41641.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41641.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>33.83</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>119.71</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44890.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44890.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.31</v>
+        <v>43.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.45</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.27</v>
+        <v>52.73</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.93</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.25</v>
+        <v>232.52</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.41</v>
+        <v>44.08</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.94</v>
+        <v>29.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.75</v>
+        <v>27.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.38</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44890.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.55</v>
+        <v>45.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.81</v>
+        <v>38.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.42</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.42</v>
+        <v>244.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.63</v>
+        <v>46.33</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.11</v>
+        <v>31.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.32</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.89</v>
+        <v>58.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44890.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.71</v>
+        <v>37.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.41</v>
+        <v>124.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.42</v>
+        <v>34.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44890.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,73 +759,73 @@
         <v>44890.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.07</v>
+        <v>20.075</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.76</v>
+        <v>15.764</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.13</v>
+        <v>43.126</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.45</v>
+        <v>36.451</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.187</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>52.73</v>
+        <v>52.725</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.93</v>
+        <v>23.926</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.814</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.91</v>
+        <v>15.905</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.51</v>
+        <v>18.508</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.97</v>
+        <v>18.973</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>5.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.52</v>
+        <v>15.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.78</v>
+        <v>22.776</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.019</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>232.52</v>
+        <v>232.521</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.08</v>
+        <v>44.084</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.73</v>
+        <v>14.731</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.44</v>
+        <v>29.442</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.333</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>2.05</v>
@@ -834,28 +834,28 @@
         <v>27.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.84</v>
+        <v>12.844</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.075</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.31</v>
+        <v>13.305</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.38</v>
+        <v>18.378</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.44</v>
+        <v>48.438</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.41</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.89</v>
+        <v>17.887</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44890.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.13</v>
+        <v>21.127</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.25</v>
+        <v>16.252</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.5</v>
+        <v>45.498</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.12</v>
+        <v>38.119</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.18</v>
+        <v>16.176</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.15000000000001</v>
+        <v>64.154</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>25.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.39</v>
+        <v>11.394</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>16.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.99</v>
+        <v>18.987</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.75</v>
+        <v>19.748</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.46</v>
+        <v>5.457</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.35</v>
+        <v>16.347</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.87</v>
+        <v>23.866</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.68</v>
+        <v>13.675</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.2</v>
+        <v>244.202</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.33</v>
+        <v>46.334</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.407</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.12</v>
+        <v>31.123</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.22</v>
+        <v>16.217</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.16</v>
+        <v>2.158</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.68</v>
+        <v>31.678</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.48</v>
+        <v>13.476</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.67</v>
+        <v>11.665</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>13.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.32</v>
+        <v>19.319</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.91</v>
+        <v>58.908</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.41</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.87</v>
+        <v>18.867</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44890.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44890.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.56</v>
+        <v>8.564</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.68</v>
+        <v>23.682</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.95</v>
+        <v>19.946</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.06</v>
+        <v>37.062</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.93</v>
+        <v>5.931</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.698</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.03</v>
+        <v>10.026</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.37</v>
+        <v>10.374</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.5</v>
+        <v>8.496</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.57</v>
+        <v>12.565</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.15</v>
+        <v>7.147</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.11</v>
+        <v>124.112</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.33</v>
+        <v>24.332</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.1</v>
+        <v>8.099</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.3</v>
+        <v>16.295</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.44</v>
+        <v>8.436999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.127</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.778</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.044</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.05</v>
+        <v>6.052</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.32</v>
+        <v>7.319</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.09</v>
+        <v>10.086</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.18</v>
+        <v>34.178</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.071</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.813000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44890.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_209.xlsx
+++ b/DATA_goal/Junction_Flooding_209.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44890.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.069</v>
+        <v>11.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.564</v>
+        <v>8.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.682</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.946</v>
+        <v>19.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.353999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.062</v>
+        <v>37.06</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.931</v>
+        <v>5.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.698</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.026</v>
+        <v>10.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.374</v>
+        <v>10.37</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.496</v>
+        <v>8.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.565</v>
+        <v>12.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.147</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.112</v>
+        <v>124.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.332</v>
+        <v>24.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.099</v>
+        <v>8.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.295</v>
+        <v>16.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.436999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.127</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.778</v>
+        <v>17.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.044</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.052</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.319</v>
+        <v>7.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.086</v>
+        <v>10.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.178</v>
+        <v>34.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.071</v>
+        <v>5.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.813000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44890.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
